--- a/files/station_restrictions.xlsx
+++ b/files/station_restrictions.xlsx
@@ -20,24 +20,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t xml:space="preserve">kırmızı </t>
-  </si>
-  <si>
-    <t xml:space="preserve">sarı</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yeşil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kare</t>
-  </si>
-  <si>
-    <t xml:space="preserve">üçgen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">daire</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t xml:space="preserve">jobs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">red</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yellow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">square</t>
+  </si>
+  <si>
+    <t xml:space="preserve">triangle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">circle</t>
   </si>
 </sst>
 </file>
@@ -138,12 +141,15 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="0" t="n">
         <v>1</v>
       </c>
@@ -157,9 +163,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -174,9 +180,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -191,9 +197,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1</v>
@@ -208,9 +214,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -225,9 +231,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1</v>
@@ -242,9 +248,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>1</v>
